--- a/AutoChessServer/_Out/NFDataCfg/Excel/NPC.xlsx
+++ b/AutoChessServer/_Out/NFDataCfg/Excel/NPC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AutoChessServer\_Out\NFDataCfg\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyAutoChess\AutoChessServer\_Out\NFDataCfg\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6307F862-8E86-4635-AB99-1228D8B61AD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB260BC-312D-4508-8B6A-4451A3A93288}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="20460" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="113">
   <si>
     <t>Id</t>
   </si>
@@ -249,10 +249,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>EarchSaber</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>AurumArcher</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -269,10 +265,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>EarchArcher</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>AurumWizard</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -289,10 +281,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>EarchWizard</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs/Object/NPC011</t>
   </si>
   <si>
@@ -406,6 +394,22 @@
   </si>
   <si>
     <t>攻击目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarthArcher</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarthSaber</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarthWizard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1040,9 +1044,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1083,7 +1087,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1113,7 +1117,7 @@
         <v>9</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1127,10 +1131,10 @@
         <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
@@ -1151,16 +1155,16 @@
         <v>11</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1497,16 +1501,16 @@
         <v>20</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>22</v>
@@ -1536,7 +1540,7 @@
         <v>27</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1547,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1559,7 +1563,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>70</v>
@@ -1574,10 +1578,10 @@
         <v>31</v>
       </c>
       <c r="L11" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="16" t="s">
         <v>93</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>96</v>
       </c>
       <c r="N11" t="s">
         <v>32</v>
@@ -1594,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1606,7 +1610,7 @@
         <v>33</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H12" s="16" t="s">
         <v>68</v>
@@ -1621,10 +1625,10 @@
         <v>31</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N12" t="s">
         <v>32</v>
@@ -1641,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1653,7 +1657,7 @@
         <v>35</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>69</v>
@@ -1668,10 +1672,10 @@
         <v>31</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N13" t="s">
         <v>36</v>
@@ -1688,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1700,7 +1704,7 @@
         <v>38</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>67</v>
@@ -1715,10 +1719,10 @@
         <v>31</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N14" t="s">
         <v>39</v>
@@ -1729,13 +1733,13 @@
     </row>
     <row r="15" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1747,10 +1751,10 @@
         <v>41</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>29</v>
@@ -1762,10 +1766,10 @@
         <v>31</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N15" t="s">
         <v>42</v>
@@ -1776,13 +1780,13 @@
     </row>
     <row r="16" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1794,10 +1798,10 @@
         <v>44</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>29</v>
@@ -1809,10 +1813,10 @@
         <v>31</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N16" t="s">
         <v>45</v>
@@ -1823,13 +1827,13 @@
     </row>
     <row r="17" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1841,10 +1845,10 @@
         <v>47</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>29</v>
@@ -1853,13 +1857,13 @@
         <v>46</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L17" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="16" t="s">
         <v>94</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>97</v>
       </c>
       <c r="N17" t="s">
         <v>48</v>
@@ -1870,13 +1874,13 @@
     </row>
     <row r="18" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1888,10 +1892,10 @@
         <v>50</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>29</v>
@@ -1900,13 +1904,13 @@
         <v>49</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N18" t="s">
         <v>51</v>
@@ -1917,13 +1921,13 @@
     </row>
     <row r="19" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1935,10 +1939,10 @@
         <v>53</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>29</v>
@@ -1947,13 +1951,13 @@
         <v>52</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N19" t="s">
         <v>54</v>
@@ -1964,13 +1968,13 @@
     </row>
     <row r="20" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1982,10 +1986,10 @@
         <v>56</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>29</v>
@@ -1997,10 +2001,10 @@
         <v>31</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N20" t="s">
         <v>57</v>
@@ -2011,13 +2015,13 @@
     </row>
     <row r="21" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2029,10 +2033,10 @@
         <v>59</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>29</v>
@@ -2041,13 +2045,13 @@
         <v>58</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N21" t="s">
         <v>60</v>
@@ -2058,13 +2062,13 @@
     </row>
     <row r="22" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2073,28 +2077,28 @@
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>29</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N22" t="s">
         <v>32</v>
@@ -2105,13 +2109,13 @@
     </row>
     <row r="23" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2120,28 +2124,28 @@
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>29</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L23" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M23" s="16" t="s">
         <v>95</v>
-      </c>
-      <c r="M23" s="16" t="s">
-        <v>98</v>
       </c>
       <c r="N23" t="s">
         <v>32</v>
@@ -2152,13 +2156,13 @@
     </row>
     <row r="24" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2167,28 +2171,28 @@
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>29</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N24" t="s">
         <v>36</v>
@@ -2199,13 +2203,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2214,28 +2218,28 @@
         <v>5</v>
       </c>
       <c r="F25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="17" t="s">
-        <v>88</v>
-      </c>
       <c r="H25" s="16" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>29</v>
       </c>
       <c r="J25" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="L25" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="K25" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="L25" s="16" t="s">
-        <v>95</v>
-      </c>
       <c r="M25" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N25" t="s">
         <v>39</v>
@@ -2275,7 +2279,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
